--- a/NoInitialDeath/AerobicNID/PseudoAero.xlsx
+++ b/NoInitialDeath/AerobicNID/PseudoAero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/Aerobic Growth/FullData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/NoInitialDeath/AerobicNID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBE4657-2AAA-3449-8BDB-102F5F13F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{BEBE4657-2AAA-3449-8BDB-102F5F13F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5982745D-EF72-7944-9645-E0C95E8577D3}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15100" xr2:uid="{4404F080-9CAA-5D44-A8BE-B8BD2CF4B98D}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2ED7DC-3EC5-8446-A56C-53F46E33F65C}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -395,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6.7499999999999921E-3</v>
+        <v>9.3999999999999986E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -403,7 +403,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>5.7499999999999912E-3</v>
+        <v>9.2749999999999985E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -411,7 +411,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>5.7499999999999912E-3</v>
+        <v>9.2999999999999985E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -419,7 +419,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>4.37499999999999E-3</v>
+        <v>9.2874999999999985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -427,7 +427,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>-1.3124999999999998E-2</v>
+        <v>9.2874999999999985E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -435,7 +435,7 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>-1.4749999999999999E-2</v>
+        <v>9.4499999999999987E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,7 +443,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>-1.8375000000000002E-2</v>
+        <v>9.2874999999999985E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +451,7 @@
         <v>140</v>
       </c>
       <c r="B8">
-        <v>-2.1125000000000005E-2</v>
+        <v>9.3124999999999986E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -459,7 +459,7 @@
         <v>160</v>
       </c>
       <c r="B9">
-        <v>-2.2625000000000006E-2</v>
+        <v>9.3124999999999986E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -467,7 +467,7 @@
         <v>180</v>
       </c>
       <c r="B10">
-        <v>-2.3375000000000007E-2</v>
+        <v>9.3374999999999986E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
         <v>200</v>
       </c>
       <c r="B11">
-        <v>-2.5000000000000008E-2</v>
+        <v>9.3249999999999986E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -483,7 +483,7 @@
         <v>220</v>
       </c>
       <c r="B12">
-        <v>-2.5125000000000008E-2</v>
+        <v>9.3874999999999986E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,7 +491,7 @@
         <v>240</v>
       </c>
       <c r="B13">
-        <v>-2.5750000000000009E-2</v>
+        <v>9.3499999999999986E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -499,7 +499,7 @@
         <v>260</v>
       </c>
       <c r="B14">
-        <v>-2.5500000000000009E-2</v>
+        <v>9.3749999999999986E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,7 +507,7 @@
         <v>280</v>
       </c>
       <c r="B15">
-        <v>-2.687500000000001E-2</v>
+        <v>9.4124999999999986E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>300</v>
       </c>
       <c r="B16">
-        <v>-2.737500000000001E-2</v>
+        <v>9.4124999999999986E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>320</v>
       </c>
       <c r="B17">
-        <v>-2.8000000000000011E-2</v>
+        <v>9.4749999999999987E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -531,7 +531,7 @@
         <v>340</v>
       </c>
       <c r="B18">
-        <v>-2.7625000000000011E-2</v>
+        <v>9.5374999999999988E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
         <v>360</v>
       </c>
       <c r="B19">
-        <v>-2.7875000000000011E-2</v>
+        <v>9.6124999999999988E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
         <v>380</v>
       </c>
       <c r="B20">
-        <v>-2.712500000000001E-2</v>
+        <v>9.7124999999999989E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>400</v>
       </c>
       <c r="B21">
-        <v>-2.6000000000000009E-2</v>
+        <v>9.799999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>420</v>
       </c>
       <c r="B22">
-        <v>-2.5500000000000009E-2</v>
+        <v>9.9499999999999991E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>440</v>
       </c>
       <c r="B23">
-        <v>-2.3875000000000007E-2</v>
+        <v>0.10112499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>460</v>
       </c>
       <c r="B24">
-        <v>-2.3250000000000007E-2</v>
+        <v>0.10349999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>480</v>
       </c>
       <c r="B25">
-        <v>-2.0250000000000004E-2</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>500</v>
       </c>
       <c r="B26">
-        <v>-1.7125000000000001E-2</v>
+        <v>0.110125</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +603,7 @@
         <v>520</v>
       </c>
       <c r="B27">
-        <v>-1.2374999999999997E-2</v>
+        <v>0.11512500000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>540</v>
       </c>
       <c r="B28">
-        <v>-6.1250000000000054E-3</v>
+        <v>0.121625</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>560</v>
       </c>
       <c r="B29">
-        <v>2.250000000000002E-3</v>
+        <v>0.12925</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>580</v>
       </c>
       <c r="B30">
-        <v>1.2000000000000011E-2</v>
+        <v>0.13975000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>600</v>
       </c>
       <c r="B31">
-        <v>2.4249999999999994E-2</v>
+        <v>0.1525</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>620</v>
       </c>
       <c r="B32">
-        <v>3.9374999999999993E-2</v>
+        <v>0.167875</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>640</v>
       </c>
       <c r="B33">
-        <v>5.8499999999999969E-2</v>
+        <v>0.18699999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>660</v>
       </c>
       <c r="B34">
-        <v>7.9875000000000002E-2</v>
+        <v>0.20912500000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>680</v>
       </c>
       <c r="B35">
-        <v>0.10549999999999998</v>
+        <v>0.23524999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>700</v>
       </c>
       <c r="B36">
-        <v>0.13600000000000001</v>
+        <v>0.26550000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>720</v>
       </c>
       <c r="B37">
-        <v>0.17049999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
         <v>740</v>
       </c>
       <c r="B38">
-        <v>0.20937500000000003</v>
+        <v>0.33887500000000004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>760</v>
       </c>
       <c r="B39">
-        <v>0.252</v>
+        <v>0.38175000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>780</v>
       </c>
       <c r="B40">
-        <v>0.29374999999999996</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>800</v>
       </c>
       <c r="B41">
-        <v>0.32125000000000004</v>
+        <v>0.45150000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>820</v>
       </c>
       <c r="B42">
-        <v>0.33975</v>
+        <v>0.46975</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>840</v>
       </c>
       <c r="B43">
-        <v>0.357875</v>
+        <v>0.487875</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>860</v>
       </c>
       <c r="B44">
-        <v>0.37575000000000003</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>880</v>
       </c>
       <c r="B45">
-        <v>0.39037500000000003</v>
+        <v>0.51912500000000006</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>900</v>
       </c>
       <c r="B46">
-        <v>0.40712500000000001</v>
+        <v>0.53562500000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +763,7 @@
         <v>920</v>
       </c>
       <c r="B47">
-        <v>0.425875</v>
+        <v>0.55212499999999998</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>940</v>
       </c>
       <c r="B48">
-        <v>0.44337499999999985</v>
+        <v>0.56812499999999988</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>960</v>
       </c>
       <c r="B49">
-        <v>0.46337500000000009</v>
+        <v>0.58737500000000009</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>980</v>
       </c>
       <c r="B50">
-        <v>0.48512499999999997</v>
+        <v>0.60762499999999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>1000</v>
       </c>
       <c r="B51">
-        <v>0.50387499999999996</v>
+        <v>0.62612499999999993</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>1020</v>
       </c>
       <c r="B52">
-        <v>0.52287499999999998</v>
+        <v>0.64337500000000003</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
         <v>1040</v>
       </c>
       <c r="B53">
-        <v>0.5422499999999999</v>
+        <v>0.66174999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>1060</v>
       </c>
       <c r="B54">
-        <v>0.55812499999999998</v>
+        <v>0.67537499999999995</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -827,7 +827,7 @@
         <v>1080</v>
       </c>
       <c r="B55">
-        <v>0.57625000000000004</v>
+        <v>0.69125000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -835,7 +835,7 @@
         <v>1100</v>
       </c>
       <c r="B56">
-        <v>0.59287500000000004</v>
+        <v>0.705125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -843,7 +843,7 @@
         <v>1120</v>
       </c>
       <c r="B57">
-        <v>0.60450000000000004</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>1140</v>
       </c>
       <c r="B58">
-        <v>0.61862499999999998</v>
+        <v>0.72737499999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>1160</v>
       </c>
       <c r="B59">
-        <v>0.63162499999999999</v>
+        <v>0.738375</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -867,7 +867,7 @@
         <v>1180</v>
       </c>
       <c r="B60">
-        <v>0.65125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
         <v>1200</v>
       </c>
       <c r="B61">
-        <v>0.66562499999999991</v>
+        <v>0.76287499999999997</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>1220</v>
       </c>
       <c r="B62">
-        <v>0.67837500000000017</v>
+        <v>0.77337500000000015</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>1240</v>
       </c>
       <c r="B63">
-        <v>0.68625000000000003</v>
+        <v>0.78275000000000006</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>1260</v>
       </c>
       <c r="B64">
-        <v>0.69437499999999996</v>
+        <v>0.79062500000000002</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>1280</v>
       </c>
       <c r="B65">
-        <v>0.70400000000000007</v>
+        <v>0.7985000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>1300</v>
       </c>
       <c r="B66">
-        <v>0.71312500000000001</v>
+        <v>0.80712499999999998</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -923,7 +923,7 @@
         <v>1320</v>
       </c>
       <c r="B67">
-        <v>0.72062499999999996</v>
+        <v>0.81337499999999996</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>1340</v>
       </c>
       <c r="B68">
-        <v>0.72687500000000005</v>
+        <v>0.82037500000000008</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>1360</v>
       </c>
       <c r="B69">
-        <v>0.72987500000000005</v>
+        <v>0.82362500000000005</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
         <v>1380</v>
       </c>
       <c r="B70">
-        <v>0.73037500000000011</v>
+        <v>0.82537500000000008</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>1400</v>
       </c>
       <c r="B71">
-        <v>0.73387499999999994</v>
+        <v>0.82937499999999997</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>1420</v>
       </c>
       <c r="B72">
-        <v>0.73487499999999994</v>
+        <v>0.83137499999999998</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>1440</v>
       </c>
       <c r="B73">
-        <v>0.73599999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>1460</v>
       </c>
       <c r="B74">
-        <v>0.733375</v>
+        <v>0.832125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>1480</v>
       </c>
       <c r="B75">
-        <v>0.73425000000000007</v>
+        <v>0.83350000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>1500</v>
       </c>
       <c r="B76">
-        <v>0.73687500000000017</v>
+        <v>0.83612500000000012</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>1520</v>
       </c>
       <c r="B77">
-        <v>0.7413749999999999</v>
+        <v>0.84187499999999993</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>1540</v>
       </c>
       <c r="B78">
-        <v>0.74362499999999998</v>
+        <v>0.84512500000000002</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>1560</v>
       </c>
       <c r="B79">
-        <v>0.73974999999999991</v>
+        <v>0.84199999999999986</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
         <v>1580</v>
       </c>
       <c r="B80">
-        <v>0.75287500000000007</v>
+        <v>0.85487500000000005</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>1600</v>
       </c>
       <c r="B81">
-        <v>0.74912500000000004</v>
+        <v>0.85212500000000002</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>1620</v>
       </c>
       <c r="B82">
-        <v>0.74049999999999994</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>1640</v>
       </c>
       <c r="B83">
-        <v>0.73562499999999997</v>
+        <v>0.83862499999999995</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>1660</v>
       </c>
       <c r="B84">
-        <v>0.73849999999999993</v>
+        <v>0.84124999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>1680</v>
       </c>
       <c r="B85">
-        <v>0.75324999999999998</v>
+        <v>0.85624999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>1700</v>
       </c>
       <c r="B86">
-        <v>0.75412500000000005</v>
+        <v>0.85787500000000005</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>1720</v>
       </c>
       <c r="B87">
-        <v>0.75549999999999995</v>
+        <v>0.85949999999999993</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>1740</v>
       </c>
       <c r="B88">
-        <v>0.76512499999999983</v>
+        <v>0.8693749999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
         <v>1760</v>
       </c>
       <c r="B89">
-        <v>0.76199999999999979</v>
+        <v>0.86724999999999985</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
         <v>1780</v>
       </c>
       <c r="B90">
-        <v>0.77512500000000006</v>
+        <v>0.88037500000000002</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>1800</v>
       </c>
       <c r="B91">
-        <v>0.76962500000000011</v>
+        <v>0.87437500000000012</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
         <v>1820</v>
       </c>
       <c r="B92">
-        <v>0.78162500000000001</v>
+        <v>0.88587500000000008</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>1840</v>
       </c>
       <c r="B93">
-        <v>0.82362500000000005</v>
+        <v>0.92887500000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>1860</v>
       </c>
       <c r="B94">
-        <v>0.82800000000000007</v>
+        <v>0.93450000000000011</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1147,7 @@
         <v>1880</v>
       </c>
       <c r="B95">
-        <v>0.81</v>
+        <v>0.91625000000000012</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1155,7 @@
         <v>1900</v>
       </c>
       <c r="B96">
-        <v>0.87662499999999999</v>
+        <v>0.98362499999999997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>1920</v>
       </c>
       <c r="B97">
-        <v>0.86024999999999996</v>
+        <v>0.96624999999999994</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>1940</v>
       </c>
       <c r="B98">
-        <v>0.86249999999999993</v>
+        <v>0.96924999999999994</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>1960</v>
       </c>
       <c r="B99">
-        <v>0.88687499999999986</v>
+        <v>0.9933749999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>1980</v>
       </c>
       <c r="B100">
-        <v>0.90412500000000007</v>
+        <v>1.010375</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>2000</v>
       </c>
       <c r="B101">
-        <v>0.92387500000000011</v>
+        <v>1.0306250000000001</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>2020</v>
       </c>
       <c r="B102">
-        <v>0.96087499999999992</v>
+        <v>1.067375</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
         <v>2040</v>
       </c>
       <c r="B103">
-        <v>0.9753750000000001</v>
+        <v>1.0823750000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>2060</v>
       </c>
       <c r="B104">
-        <v>0.99437500000000001</v>
+        <v>1.100125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>2080</v>
       </c>
       <c r="B105">
-        <v>0.98624999999999985</v>
+        <v>1.0932499999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>2100</v>
       </c>
       <c r="B106">
-        <v>1.0302500000000001</v>
+        <v>1.1372500000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>2120</v>
       </c>
       <c r="B107">
-        <v>1.0165</v>
+        <v>1.12225</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1251,7 @@
         <v>2140</v>
       </c>
       <c r="B108">
-        <v>1.0186250000000001</v>
+        <v>1.1236250000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>2160</v>
       </c>
       <c r="B109">
-        <v>1.0390000000000001</v>
+        <v>1.14575</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1267,7 +1267,7 @@
         <v>2180</v>
       </c>
       <c r="B110">
-        <v>1.0483750000000001</v>
+        <v>1.1543750000000002</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
         <v>2200</v>
       </c>
       <c r="B111">
-        <v>1.0457499999999997</v>
+        <v>1.1529999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>2220</v>
       </c>
       <c r="B112">
-        <v>1.0353749999999999</v>
+        <v>1.1416249999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>2240</v>
       </c>
       <c r="B113">
-        <v>1.0503750000000001</v>
+        <v>1.155875</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>2260</v>
       </c>
       <c r="B114">
-        <v>1.0191249999999998</v>
+        <v>1.1241249999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>2280</v>
       </c>
       <c r="B115">
-        <v>1.033625</v>
+        <v>1.1381250000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1315,7 @@
         <v>2300</v>
       </c>
       <c r="B116">
-        <v>1.0505</v>
+        <v>1.1539999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
         <v>2320</v>
       </c>
       <c r="B117">
-        <v>1.0823749999999999</v>
+        <v>1.1848749999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
         <v>2340</v>
       </c>
       <c r="B118">
-        <v>1.0375000000000001</v>
+        <v>1.139</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>2360</v>
       </c>
       <c r="B119">
-        <v>1.0453749999999999</v>
+        <v>1.145375</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>2380</v>
       </c>
       <c r="B120">
-        <v>1.0486249999999999</v>
+        <v>1.148625</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>2400</v>
       </c>
       <c r="B121">
-        <v>1.0559999999999998</v>
+        <v>1.1539999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>2420</v>
       </c>
       <c r="B122">
-        <v>1.0867499999999999</v>
+        <v>1.1842499999999998</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1371,7 @@
         <v>2440</v>
       </c>
       <c r="B123">
-        <v>1.1099999999999999</v>
+        <v>1.2072499999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1379,7 @@
         <v>2460</v>
       </c>
       <c r="B124">
-        <v>1.0763749999999999</v>
+        <v>1.1728749999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>2480</v>
       </c>
       <c r="B125">
-        <v>1.086875</v>
+        <v>1.183125</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>2500</v>
       </c>
       <c r="B126">
-        <v>1.1068749999999998</v>
+        <v>1.2028749999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>2520</v>
       </c>
       <c r="B127">
-        <v>1.10975</v>
+        <v>1.2052499999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>2540</v>
       </c>
       <c r="B128">
-        <v>1.0983750000000001</v>
+        <v>1.1923750000000002</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>2560</v>
       </c>
       <c r="B129">
-        <v>1.1380000000000001</v>
+        <v>1.2302500000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
         <v>2580</v>
       </c>
       <c r="B130">
-        <v>1.1357499999999998</v>
+        <v>1.2259999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>2600</v>
       </c>
       <c r="B131">
-        <v>1.1623749999999999</v>
+        <v>1.250875</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
         <v>2620</v>
       </c>
       <c r="B132">
-        <v>1.1917499999999999</v>
+        <v>1.2794999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>2640</v>
       </c>
       <c r="B133">
-        <v>1.2048750000000001</v>
+        <v>1.2923750000000001</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>2660</v>
       </c>
       <c r="B134">
-        <v>1.2048750000000001</v>
+        <v>1.2926250000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>2680</v>
       </c>
       <c r="B135">
-        <v>1.17225</v>
+        <v>1.2610000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>2700</v>
       </c>
       <c r="B136">
-        <v>1.1639999999999999</v>
+        <v>1.2529999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>2720</v>
       </c>
       <c r="B137">
-        <v>1.2004999999999999</v>
+        <v>1.2894999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>2740</v>
       </c>
       <c r="B138">
-        <v>1.1868749999999999</v>
+        <v>1.2753749999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>2760</v>
       </c>
       <c r="B139">
-        <v>1.2161250000000001</v>
+        <v>1.3063750000000001</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>2780</v>
       </c>
       <c r="B140">
-        <v>1.19275</v>
+        <v>1.2829999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>2800</v>
       </c>
       <c r="B141">
-        <v>1.1919999999999999</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>2820</v>
       </c>
       <c r="B142">
-        <v>1.212</v>
+        <v>1.30175</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>2840</v>
       </c>
       <c r="B143">
-        <v>1.1848749999999999</v>
+        <v>1.2758749999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>2860</v>
       </c>
       <c r="B144">
-        <v>1.218</v>
+        <v>1.30925</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1547,7 @@
         <v>2880</v>
       </c>
       <c r="B145">
-        <v>1.2184999999999997</v>
+        <v>1.3124999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/NoInitialDeath/AerobicNID/PseudoAero.xlsx
+++ b/NoInitialDeath/AerobicNID/PseudoAero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/NoInitialDeath/AerobicNID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BEBE4657-2AAA-3449-8BDB-102F5F13F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5982745D-EF72-7944-9645-E0C95E8577D3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BEBE4657-2AAA-3449-8BDB-102F5F13F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1737918-36CA-3B47-83EA-93943ABB12EB}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15100" xr2:uid="{4404F080-9CAA-5D44-A8BE-B8BD2CF4B98D}"/>
   </bookViews>
@@ -83,6 +83,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2ED7DC-3EC5-8446-A56C-53F46E33F65C}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B145"/>
     </sheetView>
   </sheetViews>
@@ -395,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9.3999999999999986E-2</v>
+        <v>6.7499999999999921E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -403,7 +407,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>9.2749999999999985E-2</v>
+        <v>5.7499999999999912E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -411,7 +415,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>9.2999999999999985E-2</v>
+        <v>5.7499999999999912E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -419,7 +423,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>9.2874999999999985E-2</v>
+        <v>4.37499999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -427,7 +431,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>9.2874999999999985E-2</v>
+        <v>-1.3124999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -435,7 +439,7 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>9.4499999999999987E-2</v>
+        <v>-1.4749999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,7 +447,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>9.2874999999999985E-2</v>
+        <v>-1.8375000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +455,7 @@
         <v>140</v>
       </c>
       <c r="B8">
-        <v>9.3124999999999986E-2</v>
+        <v>-2.1125000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -459,7 +463,7 @@
         <v>160</v>
       </c>
       <c r="B9">
-        <v>9.3124999999999986E-2</v>
+        <v>-2.2625000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -467,7 +471,7 @@
         <v>180</v>
       </c>
       <c r="B10">
-        <v>9.3374999999999986E-2</v>
+        <v>-2.3375000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,7 +479,7 @@
         <v>200</v>
       </c>
       <c r="B11">
-        <v>9.3249999999999986E-2</v>
+        <v>-2.5000000000000008E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -483,7 +487,7 @@
         <v>220</v>
       </c>
       <c r="B12">
-        <v>9.3874999999999986E-2</v>
+        <v>-2.5125000000000008E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,7 +495,7 @@
         <v>240</v>
       </c>
       <c r="B13">
-        <v>9.3499999999999986E-2</v>
+        <v>-2.5750000000000009E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -499,7 +503,7 @@
         <v>260</v>
       </c>
       <c r="B14">
-        <v>9.3749999999999986E-2</v>
+        <v>-2.5500000000000009E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,7 +511,7 @@
         <v>280</v>
       </c>
       <c r="B15">
-        <v>9.4124999999999986E-2</v>
+        <v>-2.687500000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,7 +519,7 @@
         <v>300</v>
       </c>
       <c r="B16">
-        <v>9.4124999999999986E-2</v>
+        <v>-2.737500000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -523,7 +527,7 @@
         <v>320</v>
       </c>
       <c r="B17">
-        <v>9.4749999999999987E-2</v>
+        <v>-2.8000000000000011E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -531,7 +535,7 @@
         <v>340</v>
       </c>
       <c r="B18">
-        <v>9.5374999999999988E-2</v>
+        <v>-2.7625000000000011E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +543,7 @@
         <v>360</v>
       </c>
       <c r="B19">
-        <v>9.6124999999999988E-2</v>
+        <v>-2.7875000000000011E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -547,7 +551,7 @@
         <v>380</v>
       </c>
       <c r="B20">
-        <v>9.7124999999999989E-2</v>
+        <v>-2.712500000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -555,7 +559,7 @@
         <v>400</v>
       </c>
       <c r="B21">
-        <v>9.799999999999999E-2</v>
+        <v>-2.6000000000000009E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -563,7 +567,7 @@
         <v>420</v>
       </c>
       <c r="B22">
-        <v>9.9499999999999991E-2</v>
+        <v>-2.5500000000000009E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,7 +575,7 @@
         <v>440</v>
       </c>
       <c r="B23">
-        <v>0.10112499999999999</v>
+        <v>-2.3875000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,7 +583,7 @@
         <v>460</v>
       </c>
       <c r="B24">
-        <v>0.10349999999999999</v>
+        <v>-2.3250000000000007E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -587,7 +591,7 @@
         <v>480</v>
       </c>
       <c r="B25">
-        <v>0.1065</v>
+        <v>-2.0250000000000004E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,7 +599,7 @@
         <v>500</v>
       </c>
       <c r="B26">
-        <v>0.110125</v>
+        <v>-1.7125000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +607,7 @@
         <v>520</v>
       </c>
       <c r="B27">
-        <v>0.11512500000000001</v>
+        <v>-1.2374999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +615,7 @@
         <v>540</v>
       </c>
       <c r="B28">
-        <v>0.121625</v>
+        <v>-6.1250000000000054E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +623,7 @@
         <v>560</v>
       </c>
       <c r="B29">
-        <v>0.12925</v>
+        <v>2.250000000000002E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +631,7 @@
         <v>580</v>
       </c>
       <c r="B30">
-        <v>0.13975000000000001</v>
+        <v>1.2000000000000011E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +639,7 @@
         <v>600</v>
       </c>
       <c r="B31">
-        <v>0.1525</v>
+        <v>2.4249999999999994E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +647,7 @@
         <v>620</v>
       </c>
       <c r="B32">
-        <v>0.167875</v>
+        <v>3.9374999999999993E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +655,7 @@
         <v>640</v>
       </c>
       <c r="B33">
-        <v>0.18699999999999997</v>
+        <v>5.8499999999999969E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +663,7 @@
         <v>660</v>
       </c>
       <c r="B34">
-        <v>0.20912500000000001</v>
+        <v>7.9875000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +671,7 @@
         <v>680</v>
       </c>
       <c r="B35">
-        <v>0.23524999999999999</v>
+        <v>0.10549999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +679,7 @@
         <v>700</v>
       </c>
       <c r="B36">
-        <v>0.26550000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +687,7 @@
         <v>720</v>
       </c>
       <c r="B37">
-        <v>0.3</v>
+        <v>0.17049999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +695,7 @@
         <v>740</v>
       </c>
       <c r="B38">
-        <v>0.33887500000000004</v>
+        <v>0.20937500000000003</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +703,7 @@
         <v>760</v>
       </c>
       <c r="B39">
-        <v>0.38175000000000003</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +711,7 @@
         <v>780</v>
       </c>
       <c r="B40">
-        <v>0.42399999999999999</v>
+        <v>0.29374999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +719,7 @@
         <v>800</v>
       </c>
       <c r="B41">
-        <v>0.45150000000000001</v>
+        <v>0.32125000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +727,7 @@
         <v>820</v>
       </c>
       <c r="B42">
-        <v>0.46975</v>
+        <v>0.33975</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -731,7 +735,7 @@
         <v>840</v>
       </c>
       <c r="B43">
-        <v>0.487875</v>
+        <v>0.357875</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +743,7 @@
         <v>860</v>
       </c>
       <c r="B44">
-        <v>0.505</v>
+        <v>0.37575000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +751,7 @@
         <v>880</v>
       </c>
       <c r="B45">
-        <v>0.51912500000000006</v>
+        <v>0.39037500000000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +759,7 @@
         <v>900</v>
       </c>
       <c r="B46">
-        <v>0.53562500000000002</v>
+        <v>0.40712500000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +767,7 @@
         <v>920</v>
       </c>
       <c r="B47">
-        <v>0.55212499999999998</v>
+        <v>0.425875</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,7 +775,7 @@
         <v>940</v>
       </c>
       <c r="B48">
-        <v>0.56812499999999988</v>
+        <v>0.44337499999999985</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,7 +783,7 @@
         <v>960</v>
       </c>
       <c r="B49">
-        <v>0.58737500000000009</v>
+        <v>0.46337500000000009</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,7 +791,7 @@
         <v>980</v>
       </c>
       <c r="B50">
-        <v>0.60762499999999997</v>
+        <v>0.48512499999999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +799,7 @@
         <v>1000</v>
       </c>
       <c r="B51">
-        <v>0.62612499999999993</v>
+        <v>0.50387499999999996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +807,7 @@
         <v>1020</v>
       </c>
       <c r="B52">
-        <v>0.64337500000000003</v>
+        <v>0.52287499999999998</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,7 +815,7 @@
         <v>1040</v>
       </c>
       <c r="B53">
-        <v>0.66174999999999995</v>
+        <v>0.5422499999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,7 +823,7 @@
         <v>1060</v>
       </c>
       <c r="B54">
-        <v>0.67537499999999995</v>
+        <v>0.55812499999999998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -827,7 +831,7 @@
         <v>1080</v>
       </c>
       <c r="B55">
-        <v>0.69125000000000003</v>
+        <v>0.57625000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -835,7 +839,7 @@
         <v>1100</v>
       </c>
       <c r="B56">
-        <v>0.705125</v>
+        <v>0.59287500000000004</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -843,7 +847,7 @@
         <v>1120</v>
       </c>
       <c r="B57">
-        <v>0.71599999999999997</v>
+        <v>0.60450000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -851,7 +855,7 @@
         <v>1140</v>
       </c>
       <c r="B58">
-        <v>0.72737499999999999</v>
+        <v>0.61862499999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -859,7 +863,7 @@
         <v>1160</v>
       </c>
       <c r="B59">
-        <v>0.738375</v>
+        <v>0.63162499999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -867,7 +871,7 @@
         <v>1180</v>
       </c>
       <c r="B60">
-        <v>0.75</v>
+        <v>0.65125</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -875,7 +879,7 @@
         <v>1200</v>
       </c>
       <c r="B61">
-        <v>0.76287499999999997</v>
+        <v>0.66562499999999991</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,7 +887,7 @@
         <v>1220</v>
       </c>
       <c r="B62">
-        <v>0.77337500000000015</v>
+        <v>0.67837500000000017</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -891,7 +895,7 @@
         <v>1240</v>
       </c>
       <c r="B63">
-        <v>0.78275000000000006</v>
+        <v>0.68625000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +903,7 @@
         <v>1260</v>
       </c>
       <c r="B64">
-        <v>0.79062500000000002</v>
+        <v>0.69437499999999996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -907,7 +911,7 @@
         <v>1280</v>
       </c>
       <c r="B65">
-        <v>0.7985000000000001</v>
+        <v>0.70400000000000007</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -915,7 +919,7 @@
         <v>1300</v>
       </c>
       <c r="B66">
-        <v>0.80712499999999998</v>
+        <v>0.71312500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -923,7 +927,7 @@
         <v>1320</v>
       </c>
       <c r="B67">
-        <v>0.81337499999999996</v>
+        <v>0.72062499999999996</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -931,7 +935,7 @@
         <v>1340</v>
       </c>
       <c r="B68">
-        <v>0.82037500000000008</v>
+        <v>0.72687500000000005</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,7 +943,7 @@
         <v>1360</v>
       </c>
       <c r="B69">
-        <v>0.82362500000000005</v>
+        <v>0.72987500000000005</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -947,7 +951,7 @@
         <v>1380</v>
       </c>
       <c r="B70">
-        <v>0.82537500000000008</v>
+        <v>0.73037500000000011</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +959,7 @@
         <v>1400</v>
       </c>
       <c r="B71">
-        <v>0.82937499999999997</v>
+        <v>0.73387499999999994</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +967,7 @@
         <v>1420</v>
       </c>
       <c r="B72">
-        <v>0.83137499999999998</v>
+        <v>0.73487499999999994</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +975,7 @@
         <v>1440</v>
       </c>
       <c r="B73">
-        <v>0.83299999999999996</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,7 +983,7 @@
         <v>1460</v>
       </c>
       <c r="B74">
-        <v>0.832125</v>
+        <v>0.733375</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +991,7 @@
         <v>1480</v>
       </c>
       <c r="B75">
-        <v>0.83350000000000002</v>
+        <v>0.73425000000000007</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +999,7 @@
         <v>1500</v>
       </c>
       <c r="B76">
-        <v>0.83612500000000012</v>
+        <v>0.73687500000000017</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1007,7 @@
         <v>1520</v>
       </c>
       <c r="B77">
-        <v>0.84187499999999993</v>
+        <v>0.7413749999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1015,7 @@
         <v>1540</v>
       </c>
       <c r="B78">
-        <v>0.84512500000000002</v>
+        <v>0.74362499999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1023,7 @@
         <v>1560</v>
       </c>
       <c r="B79">
-        <v>0.84199999999999986</v>
+        <v>0.73974999999999991</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1031,7 @@
         <v>1580</v>
       </c>
       <c r="B80">
-        <v>0.85487500000000005</v>
+        <v>0.75287500000000007</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1039,7 @@
         <v>1600</v>
       </c>
       <c r="B81">
-        <v>0.85212500000000002</v>
+        <v>0.74912500000000004</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1047,7 @@
         <v>1620</v>
       </c>
       <c r="B82">
-        <v>0.84375</v>
+        <v>0.74049999999999994</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1055,7 @@
         <v>1640</v>
       </c>
       <c r="B83">
-        <v>0.83862499999999995</v>
+        <v>0.73562499999999997</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1063,7 @@
         <v>1660</v>
       </c>
       <c r="B84">
-        <v>0.84124999999999994</v>
+        <v>0.73849999999999993</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,7 +1071,7 @@
         <v>1680</v>
       </c>
       <c r="B85">
-        <v>0.85624999999999996</v>
+        <v>0.75324999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1075,7 +1079,7 @@
         <v>1700</v>
       </c>
       <c r="B86">
-        <v>0.85787500000000005</v>
+        <v>0.75412500000000005</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1083,7 +1087,7 @@
         <v>1720</v>
       </c>
       <c r="B87">
-        <v>0.85949999999999993</v>
+        <v>0.75549999999999995</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1091,7 +1095,7 @@
         <v>1740</v>
       </c>
       <c r="B88">
-        <v>0.8693749999999999</v>
+        <v>0.76512499999999983</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1099,7 +1103,7 @@
         <v>1760</v>
       </c>
       <c r="B89">
-        <v>0.86724999999999985</v>
+        <v>0.76199999999999979</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1107,7 +1111,7 @@
         <v>1780</v>
       </c>
       <c r="B90">
-        <v>0.88037500000000002</v>
+        <v>0.77512500000000006</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,7 +1119,7 @@
         <v>1800</v>
       </c>
       <c r="B91">
-        <v>0.87437500000000012</v>
+        <v>0.76962500000000011</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1123,7 +1127,7 @@
         <v>1820</v>
       </c>
       <c r="B92">
-        <v>0.88587500000000008</v>
+        <v>0.78162500000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1135,7 @@
         <v>1840</v>
       </c>
       <c r="B93">
-        <v>0.92887500000000001</v>
+        <v>0.82362500000000005</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1143,7 @@
         <v>1860</v>
       </c>
       <c r="B94">
-        <v>0.93450000000000011</v>
+        <v>0.82800000000000007</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1151,7 @@
         <v>1880</v>
       </c>
       <c r="B95">
-        <v>0.91625000000000012</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1159,7 @@
         <v>1900</v>
       </c>
       <c r="B96">
-        <v>0.98362499999999997</v>
+        <v>0.87662499999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1167,7 @@
         <v>1920</v>
       </c>
       <c r="B97">
-        <v>0.96624999999999994</v>
+        <v>0.86024999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1175,7 @@
         <v>1940</v>
       </c>
       <c r="B98">
-        <v>0.96924999999999994</v>
+        <v>0.86249999999999993</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1183,7 @@
         <v>1960</v>
       </c>
       <c r="B99">
-        <v>0.9933749999999999</v>
+        <v>0.88687499999999986</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1191,7 @@
         <v>1980</v>
       </c>
       <c r="B100">
-        <v>1.010375</v>
+        <v>0.90412500000000007</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1199,7 @@
         <v>2000</v>
       </c>
       <c r="B101">
-        <v>1.0306250000000001</v>
+        <v>0.92387500000000011</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1207,7 @@
         <v>2020</v>
       </c>
       <c r="B102">
-        <v>1.067375</v>
+        <v>0.96087499999999992</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1215,7 @@
         <v>2040</v>
       </c>
       <c r="B103">
-        <v>1.0823750000000001</v>
+        <v>0.9753750000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1223,7 @@
         <v>2060</v>
       </c>
       <c r="B104">
-        <v>1.100125</v>
+        <v>0.99437500000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1231,7 @@
         <v>2080</v>
       </c>
       <c r="B105">
-        <v>1.0932499999999998</v>
+        <v>0.98624999999999985</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1239,7 @@
         <v>2100</v>
       </c>
       <c r="B106">
-        <v>1.1372500000000001</v>
+        <v>1.0302500000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,7 +1247,7 @@
         <v>2120</v>
       </c>
       <c r="B107">
-        <v>1.12225</v>
+        <v>1.0165</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1255,7 @@
         <v>2140</v>
       </c>
       <c r="B108">
-        <v>1.1236250000000001</v>
+        <v>1.0186250000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,7 +1263,7 @@
         <v>2160</v>
       </c>
       <c r="B109">
-        <v>1.14575</v>
+        <v>1.0390000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1267,7 +1271,7 @@
         <v>2180</v>
       </c>
       <c r="B110">
-        <v>1.1543750000000002</v>
+        <v>1.0483750000000001</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1279,7 @@
         <v>2200</v>
       </c>
       <c r="B111">
-        <v>1.1529999999999998</v>
+        <v>1.0457499999999997</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1283,7 +1287,7 @@
         <v>2220</v>
       </c>
       <c r="B112">
-        <v>1.1416249999999999</v>
+        <v>1.0353749999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1291,7 +1295,7 @@
         <v>2240</v>
       </c>
       <c r="B113">
-        <v>1.155875</v>
+        <v>1.0503750000000001</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1299,7 +1303,7 @@
         <v>2260</v>
       </c>
       <c r="B114">
-        <v>1.1241249999999998</v>
+        <v>1.0191249999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1311,7 @@
         <v>2280</v>
       </c>
       <c r="B115">
-        <v>1.1381250000000001</v>
+        <v>1.033625</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1319,7 @@
         <v>2300</v>
       </c>
       <c r="B116">
-        <v>1.1539999999999999</v>
+        <v>1.0505</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1327,7 @@
         <v>2320</v>
       </c>
       <c r="B117">
-        <v>1.1848749999999999</v>
+        <v>1.0823749999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,7 +1335,7 @@
         <v>2340</v>
       </c>
       <c r="B118">
-        <v>1.139</v>
+        <v>1.0375000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1343,7 @@
         <v>2360</v>
       </c>
       <c r="B119">
-        <v>1.145375</v>
+        <v>1.0453749999999999</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1351,7 @@
         <v>2380</v>
       </c>
       <c r="B120">
-        <v>1.148625</v>
+        <v>1.0486249999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1359,7 @@
         <v>2400</v>
       </c>
       <c r="B121">
-        <v>1.1539999999999999</v>
+        <v>1.0559999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1367,7 @@
         <v>2420</v>
       </c>
       <c r="B122">
-        <v>1.1842499999999998</v>
+        <v>1.0867499999999999</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1375,7 @@
         <v>2440</v>
       </c>
       <c r="B123">
-        <v>1.2072499999999999</v>
+        <v>1.1099999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1383,7 @@
         <v>2460</v>
       </c>
       <c r="B124">
-        <v>1.1728749999999999</v>
+        <v>1.0763749999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1391,7 @@
         <v>2480</v>
       </c>
       <c r="B125">
-        <v>1.183125</v>
+        <v>1.086875</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1399,7 @@
         <v>2500</v>
       </c>
       <c r="B126">
-        <v>1.2028749999999999</v>
+        <v>1.1068749999999998</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1407,7 @@
         <v>2520</v>
       </c>
       <c r="B127">
-        <v>1.2052499999999999</v>
+        <v>1.10975</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1415,7 @@
         <v>2540</v>
       </c>
       <c r="B128">
-        <v>1.1923750000000002</v>
+        <v>1.0983750000000001</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1423,7 @@
         <v>2560</v>
       </c>
       <c r="B129">
-        <v>1.2302500000000001</v>
+        <v>1.1380000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1431,7 @@
         <v>2580</v>
       </c>
       <c r="B130">
-        <v>1.2259999999999998</v>
+        <v>1.1357499999999998</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1439,7 @@
         <v>2600</v>
       </c>
       <c r="B131">
-        <v>1.250875</v>
+        <v>1.1623749999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,7 +1447,7 @@
         <v>2620</v>
       </c>
       <c r="B132">
-        <v>1.2794999999999999</v>
+        <v>1.1917499999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1451,7 +1455,7 @@
         <v>2640</v>
       </c>
       <c r="B133">
-        <v>1.2923750000000001</v>
+        <v>1.2048750000000001</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1463,7 @@
         <v>2660</v>
       </c>
       <c r="B134">
-        <v>1.2926250000000001</v>
+        <v>1.2048750000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1471,7 @@
         <v>2680</v>
       </c>
       <c r="B135">
-        <v>1.2610000000000001</v>
+        <v>1.17225</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1479,7 @@
         <v>2700</v>
       </c>
       <c r="B136">
-        <v>1.2529999999999999</v>
+        <v>1.1639999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1487,7 @@
         <v>2720</v>
       </c>
       <c r="B137">
-        <v>1.2894999999999999</v>
+        <v>1.2004999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1495,7 @@
         <v>2740</v>
       </c>
       <c r="B138">
-        <v>1.2753749999999999</v>
+        <v>1.1868749999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1503,7 @@
         <v>2760</v>
       </c>
       <c r="B139">
-        <v>1.3063750000000001</v>
+        <v>1.2161250000000001</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1511,7 @@
         <v>2780</v>
       </c>
       <c r="B140">
-        <v>1.2829999999999999</v>
+        <v>1.19275</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1519,7 @@
         <v>2800</v>
       </c>
       <c r="B141">
-        <v>1.282</v>
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1527,7 @@
         <v>2820</v>
       </c>
       <c r="B142">
-        <v>1.30175</v>
+        <v>1.212</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1535,7 @@
         <v>2840</v>
       </c>
       <c r="B143">
-        <v>1.2758749999999999</v>
+        <v>1.1848749999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1543,7 @@
         <v>2860</v>
       </c>
       <c r="B144">
-        <v>1.30925</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1551,7 @@
         <v>2880</v>
       </c>
       <c r="B145">
-        <v>1.3124999999999998</v>
+        <v>1.2184999999999997</v>
       </c>
     </row>
   </sheetData>
